--- a/30Missions_2.xlsx
+++ b/30Missions_2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magneton\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="11475" windowHeight="7230" firstSheet="8" activeTab="10"/>
   </bookViews>
@@ -477,6 +482,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -524,7 +532,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -559,7 +567,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8096,10 +8104,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E53"/>
+      <selection activeCell="A3" sqref="A3:E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8143,16 +8151,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.505199322349037</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8160,16 +8168,16 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.505199322349037</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>7.9051993223490378</v>
+        <v>8.1875</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8177,16 +8185,16 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>7.9051993223490378</v>
+        <v>8.1875</v>
       </c>
       <c r="E5">
-        <v>8.6551993223490378</v>
+        <v>9.9375</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8194,16 +8202,16 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>8.6551993223490378</v>
+        <v>9.9375</v>
       </c>
       <c r="E6">
-        <v>15.055199322349038</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8211,16 +8219,16 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>8.6551993223490378</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>15.055199322349038</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8228,33 +8236,33 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>9.9375</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>17.9375</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>4.25</v>
       </c>
       <c r="E9">
-        <v>17.080414622136654</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -8262,16 +8270,16 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>2.494800677650963</v>
+        <v>5.5</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -8279,16 +8287,16 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>7.25</v>
       </c>
       <c r="E11">
-        <v>10.4</v>
+        <v>7.3263888888888893</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -8296,16 +8304,16 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>10.4</v>
+        <v>7.3263888888888893</v>
       </c>
       <c r="E12">
-        <v>10.789310287559935</v>
+        <v>8.3263888888888893</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -8313,16 +8321,16 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
       <c r="D13">
-        <v>10.789310287559935</v>
+        <v>7.25</v>
       </c>
       <c r="E13">
-        <v>11.389310287559935</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -8336,112 +8344,112 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.389310287559935</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>12.982753885557681</v>
+        <v>9.1388888888888893</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>2.744800677650963</v>
+        <v>9.1388888888888893</v>
       </c>
       <c r="E15">
-        <v>4.25</v>
+        <v>10.388888888888889</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>4.25</v>
+        <v>10.388888888888889</v>
       </c>
       <c r="E16">
-        <v>5.15</v>
+        <v>10.597222222222223</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>5.9018256942997303</v>
+        <v>10.597222222222223</v>
       </c>
       <c r="E17">
-        <v>6.5</v>
+        <v>11.597222222222223</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>6.5</v>
+        <v>11.597222222222223</v>
       </c>
       <c r="E18">
-        <v>7.4</v>
+        <v>11.791666666666668</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
       <c r="D19">
-        <v>9.5</v>
+        <v>11.791666666666668</v>
       </c>
       <c r="E19">
-        <v>10.4</v>
+        <v>12.791666666666668</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>10.4</v>
+        <v>12</v>
       </c>
       <c r="E20">
-        <v>10.824264068711928</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -8449,16 +8457,16 @@
         <v>3</v>
       </c>
       <c r="B21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21">
-        <v>10.824264068711928</v>
+        <v>6.25</v>
       </c>
       <c r="E21">
-        <v>11.574264068711928</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -8472,95 +8480,95 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.574264068711928</v>
+        <v>7.5</v>
       </c>
       <c r="E22">
-        <v>13.867256109692445</v>
+        <v>7.5763888888888893</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>7.5763888888888893</v>
       </c>
       <c r="E23">
-        <v>4.8135772660683633</v>
+        <v>8.5763888888888893</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>4.8135772660683633</v>
+        <v>8.5763888888888893</v>
       </c>
       <c r="E24">
-        <v>5.5635772660683633</v>
+        <v>8.6527777777777786</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>6.0250000000000004</v>
+        <v>8.6527777777777786</v>
       </c>
       <c r="E25">
-        <v>6.25</v>
+        <v>10.402777777777779</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>6.25</v>
+        <v>10.402777777777779</v>
       </c>
       <c r="E26">
-        <v>7</v>
+        <v>10.479166666666668</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>9.4795836543402014</v>
+        <v>10.479166666666668</v>
       </c>
       <c r="E27">
-        <v>9.75</v>
+        <v>11.479166666666668</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -8568,16 +8576,16 @@
         <v>4</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>9.75</v>
+        <v>4.25</v>
       </c>
       <c r="E28">
-        <v>10.35</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -8591,10 +8599,10 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>11.45</v>
+        <v>5.25</v>
       </c>
       <c r="E29">
-        <v>11.75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -8602,16 +8610,16 @@
         <v>4</v>
       </c>
       <c r="B30">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>11.75</v>
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>12.65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -8619,21 +8627,21 @@
         <v>4</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>12.65</v>
+        <v>4.25</v>
       </c>
       <c r="E31">
-        <v>14.512541945836389</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -8642,27 +8650,27 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>11.510961531032516</v>
+        <v>12.25</v>
       </c>
       <c r="E32">
-        <v>14</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>26</v>
+      </c>
+      <c r="C33">
         <v>5</v>
       </c>
-      <c r="B33">
-        <v>8</v>
-      </c>
-      <c r="C33">
-        <v>6</v>
-      </c>
       <c r="D33">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="E33">
-        <v>14.9</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -8670,16 +8678,16 @@
         <v>5</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>14.9</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>15.275</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -8687,16 +8695,16 @@
         <v>5</v>
       </c>
       <c r="B35">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>5</v>
       </c>
-      <c r="D35">
-        <v>15.275</v>
-      </c>
       <c r="E35">
-        <v>16.175000000000001</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -8704,16 +8712,16 @@
         <v>5</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>17.117573536480542</v>
+        <v>6.5</v>
       </c>
       <c r="E36">
-        <v>17.5</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -8721,16 +8729,16 @@
         <v>5</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>17.5</v>
+        <v>8.25</v>
       </c>
       <c r="E37">
-        <v>18.399999999999999</v>
+        <v>8.3125</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -8738,16 +8746,16 @@
         <v>5</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>18.399999999999999</v>
+        <v>8.3125</v>
       </c>
       <c r="E38">
-        <v>18.837321392113395</v>
+        <v>9.8125</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -8755,16 +8763,16 @@
         <v>5</v>
       </c>
       <c r="B39">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>18.837321392113395</v>
+        <v>9.8125</v>
       </c>
       <c r="E39">
-        <v>19.437321392113397</v>
+        <v>9.8888888888888893</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -8772,21 +8780,21 @@
         <v>5</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>19.437321392113397</v>
+        <v>9.8888888888888893</v>
       </c>
       <c r="E40">
-        <v>21.861483618533072</v>
+        <v>11.138888888888889</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -8795,32 +8803,32 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>13.919585377863346</v>
+        <v>11.138888888888889</v>
       </c>
       <c r="E41">
-        <v>16</v>
+        <v>11.243055555555555</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>18</v>
+      </c>
+      <c r="C42">
         <v>6</v>
       </c>
-      <c r="B42">
-        <v>5</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
       <c r="D42">
-        <v>16</v>
+        <v>11.243055555555555</v>
       </c>
       <c r="E42">
-        <v>22.4</v>
+        <v>12.243055555555555</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -8829,32 +8837,32 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>22.4</v>
+        <v>12.243055555555555</v>
       </c>
       <c r="E43">
-        <v>22.4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44">
-        <v>22.4</v>
+        <v>14</v>
       </c>
       <c r="E44">
-        <v>28.799999999999997</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -8863,32 +8871,32 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>28.799999999999997</v>
+        <v>15.25</v>
       </c>
       <c r="E45">
-        <v>30.880414622136652</v>
+        <v>15.340277777777779</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>14.25</v>
+        <v>15.340277777777779</v>
       </c>
       <c r="E46">
-        <v>16.587533422220954</v>
+        <v>16.340277777777779</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B47">
         <v>21</v>
@@ -8897,15 +8905,15 @@
         <v>5</v>
       </c>
       <c r="D47">
-        <v>16.587533422220954</v>
+        <v>15.5</v>
       </c>
       <c r="E47">
-        <v>17.187533422220955</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -8914,32 +8922,32 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>17.187533422220955</v>
+        <v>16.5</v>
       </c>
       <c r="E48">
-        <v>17.457949767880756</v>
+        <v>16.6875</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B49">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>17.457949767880756</v>
+        <v>16.6875</v>
       </c>
       <c r="E49">
-        <v>18.357949767880754</v>
+        <v>17.6875</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -8948,61 +8956,435 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>18.357949767880754</v>
+        <v>17.6875</v>
       </c>
       <c r="E50">
-        <v>20.72735106356707</v>
+        <v>17.930555555555557</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D51">
-        <v>15.25</v>
+        <v>17.930555555555557</v>
       </c>
       <c r="E51">
-        <v>17.770478625182129</v>
+        <v>18.930555555555557</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C52">
         <v>5</v>
       </c>
       <c r="D52">
-        <v>17.770478625182129</v>
+        <v>13.25</v>
       </c>
       <c r="E52">
-        <v>18.670478625182128</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>14.75</v>
+      </c>
+      <c r="E53">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>24</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>15.25</v>
+      </c>
+      <c r="E54">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>16.25</v>
+      </c>
+      <c r="E55">
+        <v>16.423611111111111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <v>44</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>16.423611111111111</v>
+      </c>
+      <c r="E56">
+        <v>17.423611111111111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>29</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>17</v>
+      </c>
+      <c r="E57">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58">
+        <v>46</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>17.423611111111111</v>
+      </c>
+      <c r="E58">
+        <v>18.923611111111111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>18.923611111111111</v>
+      </c>
+      <c r="E59">
+        <v>18.944444444444443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>22</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>18.944444444444443</v>
+      </c>
+      <c r="E60">
+        <v>19.944444444444443</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>19.944444444444443</v>
+      </c>
+      <c r="E61">
+        <v>20.090277777777775</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>20.090277777777775</v>
+      </c>
+      <c r="E62">
+        <v>28.090277777777775</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63">
+        <v>38</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>14.25</v>
+      </c>
+      <c r="E63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>16</v>
+      </c>
+      <c r="E64">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>31</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>16.25</v>
+      </c>
+      <c r="E65">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>17.75</v>
+      </c>
+      <c r="E66">
+        <v>18.034722222222221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>7</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>18.034722222222221</v>
+      </c>
+      <c r="E67">
+        <v>26.034722222222221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>8</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>18.670478625182128</v>
-      </c>
-      <c r="E53">
-        <v>21.190957250364256</v>
+      <c r="B68">
+        <v>19</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>15.25</v>
+      </c>
+      <c r="E68">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>16.25</v>
+      </c>
+      <c r="E69">
+        <v>16.354166666666668</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>39</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>16.354166666666668</v>
+      </c>
+      <c r="E70">
+        <v>17.604166666666668</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>45</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>17.604166666666668</v>
+      </c>
+      <c r="E71">
+        <v>18.854166666666668</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>38</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>15.25</v>
+      </c>
+      <c r="E72">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>17</v>
+      </c>
+      <c r="E73">
+        <v>17.131944444444443</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>29</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>17.131944444444443</v>
+      </c>
+      <c r="E74">
+        <v>18.131944444444443</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>45</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>17</v>
+      </c>
+      <c r="E75">
+        <v>18.25</v>
       </c>
     </row>
   </sheetData>
